--- a/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/raw.xlsx
+++ b/Replication Package/documentation/rider-audits/compliance-pilot/codebooks/raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\compliance-pilot\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8494019-AB94-4DB8-BFF3-A495B73FCAA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C09C8-AEEF-4D92-8195-1BD69BF1174C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="324">
   <si>
     <t>name</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>user_comute_afternoon</t>
+  </si>
+  <si>
+    <t>user_home_station</t>
+  </si>
+  <si>
+    <t>user_home_line</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7697,6 +7703,16 @@
       </c>
       <c r="E228" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="E229" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="E230" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
